--- a/public/templates/ezanaLMS_Students_XLS_Template.xlsx
+++ b/public/templates/ezanaLMS_Students_XLS_Template.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t xml:space="preserve">Student ID(Drag To Auto fill)</t>
   </si>
@@ -52,30 +52,26 @@
     <t xml:space="preserve">Account Status</t>
   </si>
   <si>
-    <t xml:space="preserve">Day Enrolled</t>
+    <t xml:space="preserve">Date Enrolled (MM/DD/YYYY)</t>
   </si>
   <si>
     <t xml:space="preserve">Current Year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No Of Modules Undertaking</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6d39379f9ccb763e9b4b8cb4bdf5753e5ca000000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="mm/dd/yy"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -97,6 +93,14 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -141,12 +145,20 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -167,27 +179,27 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2:M2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K4" activeCellId="0" sqref="K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="41.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="41.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="23.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="26.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="24.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="24.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="23.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="20.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="15.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="17.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="17.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="17.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="26.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="17.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="25.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="25.4"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -227,14 +239,25 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>13</v>
-      </c>
+      <c r="D2" s="2"/>
+      <c r="G2" s="3"/>
+      <c r="K2" s="3"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D3" s="2"/>
+      <c r="G3" s="3"/>
+      <c r="K3" s="3"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D4" s="2"/>
+      <c r="G4" s="3"/>
+      <c r="K4" s="3"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G5" s="3"/>
+      <c r="K5" s="3"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
